--- a/03_BOM/PHOTODIODE_BOM_V1.2.0.xlsx
+++ b/03_BOM/PHOTODIODE_BOM_V1.2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Altium\NANORACK\PHOTODIODE V1.2.0\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ADC91-3FF9-4A6D-9968-E936C2FCCA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FE55F-5B3A-402C-991A-01CE427D2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>Name/Comment</t>
   </si>
@@ -222,9 +222,6 @@
     <t>RES SMD 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R2, R4, R6, R19, R24, R26</t>
-  </si>
-  <si>
     <t>ERJ-3EKF1002V</t>
   </si>
   <si>
@@ -288,18 +285,6 @@
     <t>SOT223</t>
   </si>
   <si>
-    <t>1K 1%</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1001V</t>
-  </si>
-  <si>
     <t>SS54</t>
   </si>
   <si>
@@ -315,24 +300,6 @@
     <t>EVVO</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED GREEN CLEAR 0603 SMD</t>
-  </si>
-  <si>
-    <t>DS1, DS2</t>
-  </si>
-  <si>
-    <t>GREENLED_0603</t>
-  </si>
-  <si>
-    <t>Würth Elektronik</t>
-  </si>
-  <si>
-    <t>150060GS75000</t>
-  </si>
-  <si>
     <t>15uH/3.5A</t>
   </si>
   <si>
@@ -472,6 +439,27 @@
   </si>
   <si>
     <t>R3, R5, R7, R8, R10, R11, R14, R15, R16, R17, R18, R19, R20, R22, R23</t>
+  </si>
+  <si>
+    <t>ICL7660</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>SO8</t>
+  </si>
+  <si>
+    <t>ICL7660ACBAZA-T</t>
+  </si>
+  <si>
+    <t>Renesas Electronics Corporation</t>
+  </si>
+  <si>
+    <t>IC REG CHARG PUMP INV 45MA 8SOIC</t>
+  </si>
+  <si>
+    <t>R2, R4, R6, R24, R26</t>
   </si>
 </sst>
 </file>
@@ -647,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -660,7 +648,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -672,12 +660,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -945,22 +939,22 @@
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G2" s="20">
         <v>3</v>
@@ -1052,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1152,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>47</v>
@@ -1227,7 +1221,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>53</v>
@@ -1251,8 +1245,8 @@
       <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
+      <c r="C14" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
@@ -1261,23 +1255,23 @@
         <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>53</v>
@@ -1286,7 +1280,7 @@
         <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -1296,13 +1290,13 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>53</v>
@@ -1311,7 +1305,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1321,22 +1315,22 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1346,22 +1340,22 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
@@ -1371,22 +1365,22 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -1396,22 +1390,22 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
+      <c r="E20" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -1432,11 +1426,11 @@
       <c r="D21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1446,72 +1440,72 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -1520,179 +1514,153 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G25" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="G26" s="24">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="9">
+        <f>SUM(G2:G27)</f>
         <v>137</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="4">
-        <v>9</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="9">
-        <f>SUM(G3:G28)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
